--- a/_data/website-info.xlsx
+++ b/_data/website-info.xlsx
@@ -26,7 +26,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="A22" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="411">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -388,36 +388,6 @@
   </si>
   <si>
     <t xml:space="preserve">Human Communicaiton Robotics Group.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fainekos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fainekos@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application of formal methods, logic, and hybrid system theory to autonomous vehicles in order to develop dependable and provably correct systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls,AI-and-learning,Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyber-Physical Systems Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.public.asu.edu/~gfaineko/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CPSLab is working on problems related to the foundations of Cyber-Physical Systems (CPS). Particular focus is given to developing theories and tools for model based development of CPS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgios_Fainekos-09w.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20130417_145244_sm.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Subbarao</t>
@@ -963,7 +933,7 @@
     <t xml:space="preserve">The TEAL lab explores topics at the intersection of haptics, social robotics, and human-computer interaction. We study how users interact with and make sense of haptic feedback from wearable devices and robots and build hardware and software tools that facilitate creation and adaptation of haptic interactions by a wide range of users.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hasti Seifi NFO2022[83].jpg</t>
+    <t xml:space="preserve">Hasti-Seifi-NFO2022.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">TEAL_LAB.png</t>
@@ -1051,6 +1021,12 @@
   </si>
   <si>
     <t xml:space="preserve">Human-Robot,Bio-robotics,AI-and-learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VECToR Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Virtual Environments &amp; Cognitive Training Research (VECToR) lab focuses on perceptions of technology, specifically the ways in which technology is impacting the way we interact with each other as humans. Other areas of interest include the use of psychophysiological measures such as eye tracking and vocal analyses to better determine and study the critical applied cognitive and experimental topics of interest such as spatial cognition, human-human and human-robot team interactions.</t>
   </si>
   <si>
     <t xml:space="preserve">heather-lum.jpg</t>
@@ -1333,7 +1309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,6 +1389,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1501,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1594,11 +1576,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,7 +1596,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1859,12 +1849,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH1001"/>
+  <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="N39" activeCellId="0" sqref="N39"/>
+      <selection pane="bottomLeft" activeCell="N42" activeCellId="0" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2474,10 +2464,10 @@
       </c>
       <c r="C10" s="2" t="str">
         <f aca="false">A10&amp;" "&amp;B10</f>
-        <v>Georgios Fainekos</v>
+        <v>Subbarao Kambhampati</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>109</v>
@@ -2491,23 +2481,21 @@
       <c r="H10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2532,31 +2520,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="str">
         <f aca="false">A11&amp;" "&amp;B11</f>
-        <v>Subbarao Kambhampati</v>
+        <v>Lina Karam</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>121</v>
       </c>
@@ -2564,13 +2554,13 @@
         <v>122</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2595,26 +2585,26 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="str">
         <f aca="false">A12&amp;" "&amp;B12</f>
-        <v>Lina Karam</v>
+        <v>Hyunglae Lee</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>129</v>
@@ -2667,40 +2657,40 @@
       </c>
       <c r="C13" s="2" t="str">
         <f aca="false">A13&amp;" "&amp;B13</f>
-        <v>Hyunglae Lee</v>
+        <v>Thurmon Lockhart</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2725,26 +2715,26 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="str">
         <f aca="false">A14&amp;" "&amp;B14</f>
-        <v>Thurmon Lockhart</v>
+        <v>Hamid Marvi</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>150</v>
@@ -2797,7 +2787,7 @@
       </c>
       <c r="C15" s="2" t="str">
         <f aca="false">A15&amp;" "&amp;B15</f>
-        <v>Hamid Marvi</v>
+        <v>Theodore (Ted) Pavlic</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -2805,11 +2795,11 @@
       <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>160</v>
@@ -2862,19 +2852,19 @@
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">A16&amp;" "&amp;B16</f>
-        <v>Theodore (Ted) Pavlic</v>
+        <v>Yi (Max) Ren</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>170</v>
@@ -2927,40 +2917,38 @@
       </c>
       <c r="C17" s="2" t="str">
         <f aca="false">A17&amp;" "&amp;B17</f>
-        <v>Yi (Max) Ren</v>
+        <v>Aviral Shrivastava</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2985,31 +2973,33 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C18" s="2" t="str">
         <f aca="false">A18&amp;" "&amp;B18</f>
-        <v>Aviral Shrivastava</v>
+        <v>Siddharth Srivastava</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>191</v>
       </c>
@@ -3055,19 +3045,19 @@
       </c>
       <c r="C19" s="2" t="str">
         <f aca="false">A19&amp;" "&amp;B19</f>
-        <v>Siddharth Srivastava</v>
+        <v>Thomas Sugar</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>199</v>
@@ -3120,19 +3110,19 @@
       </c>
       <c r="C20" s="2" t="str">
         <f aca="false">A20&amp;" "&amp;B20</f>
-        <v>Thomas Sugar</v>
+        <v>Yezhou Yang</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
+      <c r="F20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>209</v>
@@ -3177,178 +3167,178 @@
       <c r="AH20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="9" t="str">
         <f aca="false">A21&amp;" "&amp;B21</f>
-        <v>Yezhou Yang</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>Sze Zheng Yong</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f aca="false">A22&amp;" "&amp;B22</f>
+        <v>Wenlong Zhang</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f aca="false">A22&amp;" "&amp;B22</f>
-        <v>Sze Zheng Yong</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2" t="str">
         <f aca="false">A23&amp;" "&amp;B23</f>
-        <v>Wenlong Zhang</v>
+        <v>Yu(Tony) Zhang</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3373,47 +3363,47 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C24" s="2" t="str">
         <f aca="false">A24&amp;" "&amp;B24</f>
-        <v>Yu(Tony) Zhang</v>
+        <v>Sangram Redkar</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>248</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3438,20 +3428,20 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2" t="str">
         <f aca="false">A25&amp;" "&amp;B25</f>
-        <v>Sangram Redkar</v>
+        <v>Troy McDaniel</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -3460,25 +3450,23 @@
         <v>18</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="M25" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3503,46 +3491,44 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C26" s="2" t="str">
         <f aca="false">A26&amp;" "&amp;B26</f>
-        <v>Troy McDaniel</v>
+        <v>Ayan Malik</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -3566,37 +3552,38 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <f aca="false">A27&amp;" "&amp;B27</f>
-        <v>Ayan Malik</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="J27" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K27" s="2"/>
       <c r="L27" s="3" t="s">
         <v>277</v>
       </c>
@@ -3616,301 +3603,279 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="F28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="N28" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="I29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="J29" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="K29" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="L29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="M29" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="F30" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="G30" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="K30" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="L30" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
+      <c r="M30" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="2" t="s">
         <v>312</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="E31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="F31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="I31" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>327</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -38781,42 +38746,7 @@
       <c r="AG1000" s="2"/>
       <c r="AH1000" s="2"/>
     </row>
-    <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-      <c r="AA1001" s="2"/>
-      <c r="AB1001" s="2"/>
-      <c r="AC1001" s="2"/>
-      <c r="AD1001" s="2"/>
-      <c r="AE1001" s="2"/>
-      <c r="AF1001" s="2"/>
-      <c r="AG1001" s="2"/>
-      <c r="AH1001" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O1" type="list">
@@ -38828,10 +38758,10 @@
     <hyperlink ref="E2" r:id="rId2" display="danaukes@asu.edu"/>
     <hyperlink ref="K6" r:id="rId3" display="https://venus.sod.asu.edu/VIPLE/"/>
     <hyperlink ref="K8" r:id="rId4" display="https://globalsecurity.asu.edu/expertise/human-artificial-intelligence-and-robot-teaming/"/>
-    <hyperlink ref="K28" r:id="rId5" display="https://sites.google.com/site/zhexudavid00710"/>
-    <hyperlink ref="K29" r:id="rId6" display="https://hastiseifi.com/ "/>
-    <hyperlink ref="K30" r:id="rId7" display="https://nakulgopalan.github.io/"/>
-    <hyperlink ref="K31" r:id="rId8" display="https://pooyanfazli.com/"/>
+    <hyperlink ref="K27" r:id="rId5" display="https://sites.google.com/site/zhexudavid00710"/>
+    <hyperlink ref="K28" r:id="rId6" display="https://hastiseifi.com/ "/>
+    <hyperlink ref="K29" r:id="rId7" display="https://nakulgopalan.github.io/"/>
+    <hyperlink ref="K30" r:id="rId8" display="https://pooyanfazli.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38852,7 +38782,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38871,3528 +38801,3528 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+        <v>178</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+        <v>338</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="22" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+        <v>338</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="22" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="23"/>
+        <v>345</v>
+      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="14" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+        <v>347</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>349</v>
+      </c>
+      <c r="B6" s="25"/>
       <c r="C6" s="14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+        <v>347</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>352</v>
+      </c>
+      <c r="B7" s="25"/>
       <c r="C7" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+        <v>246</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" s="23"/>
+        <v>355</v>
+      </c>
+      <c r="B8" s="25"/>
       <c r="C8" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+        <v>246</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="23"/>
+        <v>356</v>
+      </c>
+      <c r="B9" s="25"/>
       <c r="C9" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+        <v>246</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="22" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="23"/>
+        <v>359</v>
+      </c>
+      <c r="B10" s="25"/>
       <c r="C10" s="14" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+        <v>197</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="22" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+        <v>365</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>368</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="22" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+        <v>227</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B14" s="23"/>
+        <v>374</v>
+      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="14" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+        <v>246</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="23"/>
+        <v>374</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+        <v>246</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B16" s="23"/>
+        <v>377</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>387</v>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" s="23"/>
+        <v>380</v>
+      </c>
+      <c r="B17" s="25"/>
       <c r="C17" s="14" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="22" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B18" s="23"/>
+        <v>383</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="14" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+        <v>385</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B19" s="23"/>
+        <v>387</v>
+      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="14" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+        <v>385</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="22" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B20" s="23"/>
+        <v>390</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="14" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+        <v>385</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="22" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B21" s="23"/>
+        <v>393</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="14" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+        <v>395</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" s="23"/>
+        <v>396</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="14" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+        <v>148</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="22" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="22" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B24" s="23"/>
+        <v>399</v>
+      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="14" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="22" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" s="23"/>
+        <v>399</v>
+      </c>
+      <c r="B25" s="25"/>
       <c r="C25" s="14" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+        <v>148</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="22" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="A26" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>418</v>
+      <c r="E26" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I27" s="24"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I28" s="24"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I29" s="24"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I30" s="24"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I31" s="24"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I32" s="24"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I33" s="24"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I34" s="24"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I35" s="24"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I36" s="24"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I37" s="24"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I38" s="24"/>
+      <c r="I38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I39" s="24"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I40" s="24"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I41" s="24"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I42" s="24"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I43" s="24"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I44" s="24"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I45" s="24"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I46" s="24"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I47" s="24"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I48" s="24"/>
+      <c r="I48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I49" s="24"/>
+      <c r="I49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I50" s="24"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I51" s="24"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I52" s="24"/>
+      <c r="I52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I53" s="24"/>
+      <c r="I53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I54" s="24"/>
+      <c r="I54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I55" s="24"/>
+      <c r="I55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I56" s="24"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I57" s="24"/>
+      <c r="I57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I58" s="24"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I59" s="24"/>
+      <c r="I59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I60" s="24"/>
+      <c r="I60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I61" s="24"/>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I62" s="24"/>
+      <c r="I62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I63" s="24"/>
+      <c r="I63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I64" s="24"/>
+      <c r="I64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I65" s="24"/>
+      <c r="I65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I66" s="24"/>
+      <c r="I66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I67" s="24"/>
+      <c r="I67" s="26"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I68" s="24"/>
+      <c r="I68" s="26"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I69" s="24"/>
+      <c r="I69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I70" s="24"/>
+      <c r="I70" s="26"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I71" s="24"/>
+      <c r="I71" s="26"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I72" s="24"/>
+      <c r="I72" s="26"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I73" s="24"/>
+      <c r="I73" s="26"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I74" s="24"/>
+      <c r="I74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I75" s="24"/>
+      <c r="I75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I76" s="24"/>
+      <c r="I76" s="26"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I77" s="24"/>
+      <c r="I77" s="26"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I78" s="24"/>
+      <c r="I78" s="26"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I79" s="24"/>
+      <c r="I79" s="26"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I80" s="24"/>
+      <c r="I80" s="26"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I81" s="24"/>
+      <c r="I81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I82" s="24"/>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I83" s="24"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I84" s="24"/>
+      <c r="I84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I85" s="24"/>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I86" s="24"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I87" s="24"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I88" s="24"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I89" s="24"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I90" s="24"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I91" s="24"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I92" s="24"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I93" s="24"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I94" s="24"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I95" s="24"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I96" s="24"/>
+      <c r="I96" s="26"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I97" s="24"/>
+      <c r="I97" s="26"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I98" s="24"/>
+      <c r="I98" s="26"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I99" s="24"/>
+      <c r="I99" s="26"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I100" s="24"/>
+      <c r="I100" s="26"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I101" s="24"/>
+      <c r="I101" s="26"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I102" s="24"/>
+      <c r="I102" s="26"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I103" s="24"/>
+      <c r="I103" s="26"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I104" s="24"/>
+      <c r="I104" s="26"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I105" s="24"/>
+      <c r="I105" s="26"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I106" s="24"/>
+      <c r="I106" s="26"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I107" s="24"/>
+      <c r="I107" s="26"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I108" s="24"/>
+      <c r="I108" s="26"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I109" s="24"/>
+      <c r="I109" s="26"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I110" s="24"/>
+      <c r="I110" s="26"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I111" s="24"/>
+      <c r="I111" s="26"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I112" s="24"/>
+      <c r="I112" s="26"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I113" s="24"/>
+      <c r="I113" s="26"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I114" s="24"/>
+      <c r="I114" s="26"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I115" s="24"/>
+      <c r="I115" s="26"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I116" s="24"/>
+      <c r="I116" s="26"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I117" s="24"/>
+      <c r="I117" s="26"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I118" s="24"/>
+      <c r="I118" s="26"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I119" s="24"/>
+      <c r="I119" s="26"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I120" s="24"/>
+      <c r="I120" s="26"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I121" s="24"/>
+      <c r="I121" s="26"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I122" s="24"/>
+      <c r="I122" s="26"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I123" s="24"/>
+      <c r="I123" s="26"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I124" s="24"/>
+      <c r="I124" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I125" s="24"/>
+      <c r="I125" s="26"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I126" s="24"/>
+      <c r="I126" s="26"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I127" s="24"/>
+      <c r="I127" s="26"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I128" s="24"/>
+      <c r="I128" s="26"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I129" s="24"/>
+      <c r="I129" s="26"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I130" s="24"/>
+      <c r="I130" s="26"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I131" s="24"/>
+      <c r="I131" s="26"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I132" s="24"/>
+      <c r="I132" s="26"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I133" s="24"/>
+      <c r="I133" s="26"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I134" s="24"/>
+      <c r="I134" s="26"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I135" s="24"/>
+      <c r="I135" s="26"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I136" s="24"/>
+      <c r="I136" s="26"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I137" s="24"/>
+      <c r="I137" s="26"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I138" s="24"/>
+      <c r="I138" s="26"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I139" s="24"/>
+      <c r="I139" s="26"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I140" s="24"/>
+      <c r="I140" s="26"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I141" s="24"/>
+      <c r="I141" s="26"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I142" s="24"/>
+      <c r="I142" s="26"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I143" s="24"/>
+      <c r="I143" s="26"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I144" s="24"/>
+      <c r="I144" s="26"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I145" s="24"/>
+      <c r="I145" s="26"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I146" s="24"/>
+      <c r="I146" s="26"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I147" s="24"/>
+      <c r="I147" s="26"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I148" s="24"/>
+      <c r="I148" s="26"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I149" s="24"/>
+      <c r="I149" s="26"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I150" s="24"/>
+      <c r="I150" s="26"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I151" s="24"/>
+      <c r="I151" s="26"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I152" s="24"/>
+      <c r="I152" s="26"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I153" s="24"/>
+      <c r="I153" s="26"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I154" s="24"/>
+      <c r="I154" s="26"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I155" s="24"/>
+      <c r="I155" s="26"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I156" s="24"/>
+      <c r="I156" s="26"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I157" s="24"/>
+      <c r="I157" s="26"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I158" s="24"/>
+      <c r="I158" s="26"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I159" s="24"/>
+      <c r="I159" s="26"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I160" s="24"/>
+      <c r="I160" s="26"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I161" s="24"/>
+      <c r="I161" s="26"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I162" s="24"/>
+      <c r="I162" s="26"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I163" s="24"/>
+      <c r="I163" s="26"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I164" s="24"/>
+      <c r="I164" s="26"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I165" s="24"/>
+      <c r="I165" s="26"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I166" s="24"/>
+      <c r="I166" s="26"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I167" s="24"/>
+      <c r="I167" s="26"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I168" s="24"/>
+      <c r="I168" s="26"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I169" s="24"/>
+      <c r="I169" s="26"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I170" s="24"/>
+      <c r="I170" s="26"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I171" s="24"/>
+      <c r="I171" s="26"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I172" s="24"/>
+      <c r="I172" s="26"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I173" s="24"/>
+      <c r="I173" s="26"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I174" s="24"/>
+      <c r="I174" s="26"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I175" s="24"/>
+      <c r="I175" s="26"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I176" s="24"/>
+      <c r="I176" s="26"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I177" s="24"/>
+      <c r="I177" s="26"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I178" s="24"/>
+      <c r="I178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I179" s="24"/>
+      <c r="I179" s="26"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I180" s="24"/>
+      <c r="I180" s="26"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I181" s="24"/>
+      <c r="I181" s="26"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I182" s="24"/>
+      <c r="I182" s="26"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I183" s="24"/>
+      <c r="I183" s="26"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I184" s="24"/>
+      <c r="I184" s="26"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I185" s="24"/>
+      <c r="I185" s="26"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I186" s="24"/>
+      <c r="I186" s="26"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I187" s="24"/>
+      <c r="I187" s="26"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I188" s="24"/>
+      <c r="I188" s="26"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I189" s="24"/>
+      <c r="I189" s="26"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I190" s="24"/>
+      <c r="I190" s="26"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I191" s="24"/>
+      <c r="I191" s="26"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I192" s="24"/>
+      <c r="I192" s="26"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I193" s="24"/>
+      <c r="I193" s="26"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I194" s="24"/>
+      <c r="I194" s="26"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I195" s="24"/>
+      <c r="I195" s="26"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I196" s="24"/>
+      <c r="I196" s="26"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I197" s="24"/>
+      <c r="I197" s="26"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I198" s="24"/>
+      <c r="I198" s="26"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I199" s="24"/>
+      <c r="I199" s="26"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I200" s="24"/>
+      <c r="I200" s="26"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I201" s="24"/>
+      <c r="I201" s="26"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I202" s="24"/>
+      <c r="I202" s="26"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I203" s="24"/>
+      <c r="I203" s="26"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I204" s="24"/>
+      <c r="I204" s="26"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I205" s="24"/>
+      <c r="I205" s="26"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I206" s="24"/>
+      <c r="I206" s="26"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I207" s="24"/>
+      <c r="I207" s="26"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I208" s="24"/>
+      <c r="I208" s="26"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I209" s="24"/>
+      <c r="I209" s="26"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I210" s="24"/>
+      <c r="I210" s="26"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I211" s="24"/>
+      <c r="I211" s="26"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I212" s="24"/>
+      <c r="I212" s="26"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I213" s="24"/>
+      <c r="I213" s="26"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I214" s="24"/>
+      <c r="I214" s="26"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I215" s="24"/>
+      <c r="I215" s="26"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I216" s="24"/>
+      <c r="I216" s="26"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I217" s="24"/>
+      <c r="I217" s="26"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I218" s="24"/>
+      <c r="I218" s="26"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I219" s="24"/>
+      <c r="I219" s="26"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I220" s="24"/>
+      <c r="I220" s="26"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I221" s="24"/>
+      <c r="I221" s="26"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I222" s="24"/>
+      <c r="I222" s="26"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I223" s="24"/>
+      <c r="I223" s="26"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I224" s="24"/>
+      <c r="I224" s="26"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I225" s="24"/>
+      <c r="I225" s="26"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I226" s="24"/>
+      <c r="I226" s="26"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I227" s="24"/>
+      <c r="I227" s="26"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I228" s="24"/>
+      <c r="I228" s="26"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I229" s="24"/>
+      <c r="I229" s="26"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I230" s="24"/>
+      <c r="I230" s="26"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I231" s="24"/>
+      <c r="I231" s="26"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I232" s="24"/>
+      <c r="I232" s="26"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I233" s="24"/>
+      <c r="I233" s="26"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I234" s="24"/>
+      <c r="I234" s="26"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I235" s="24"/>
+      <c r="I235" s="26"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I236" s="24"/>
+      <c r="I236" s="26"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I237" s="24"/>
+      <c r="I237" s="26"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I238" s="24"/>
+      <c r="I238" s="26"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I239" s="24"/>
+      <c r="I239" s="26"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I240" s="24"/>
+      <c r="I240" s="26"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I241" s="24"/>
+      <c r="I241" s="26"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I242" s="24"/>
+      <c r="I242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I243" s="24"/>
+      <c r="I243" s="26"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I244" s="24"/>
+      <c r="I244" s="26"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I245" s="24"/>
+      <c r="I245" s="26"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I246" s="24"/>
+      <c r="I246" s="26"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I247" s="24"/>
+      <c r="I247" s="26"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I248" s="24"/>
+      <c r="I248" s="26"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I249" s="24"/>
+      <c r="I249" s="26"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I250" s="24"/>
+      <c r="I250" s="26"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I251" s="24"/>
+      <c r="I251" s="26"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I252" s="24"/>
+      <c r="I252" s="26"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I253" s="24"/>
+      <c r="I253" s="26"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I254" s="24"/>
+      <c r="I254" s="26"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I255" s="24"/>
+      <c r="I255" s="26"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I256" s="24"/>
+      <c r="I256" s="26"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I257" s="24"/>
+      <c r="I257" s="26"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I258" s="24"/>
+      <c r="I258" s="26"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I259" s="24"/>
+      <c r="I259" s="26"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I260" s="24"/>
+      <c r="I260" s="26"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I261" s="24"/>
+      <c r="I261" s="26"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I262" s="24"/>
+      <c r="I262" s="26"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I263" s="24"/>
+      <c r="I263" s="26"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I264" s="24"/>
+      <c r="I264" s="26"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I265" s="24"/>
+      <c r="I265" s="26"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I266" s="24"/>
+      <c r="I266" s="26"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I267" s="24"/>
+      <c r="I267" s="26"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I268" s="24"/>
+      <c r="I268" s="26"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I269" s="24"/>
+      <c r="I269" s="26"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I270" s="24"/>
+      <c r="I270" s="26"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I271" s="24"/>
+      <c r="I271" s="26"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I272" s="24"/>
+      <c r="I272" s="26"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I273" s="24"/>
+      <c r="I273" s="26"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I274" s="24"/>
+      <c r="I274" s="26"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I275" s="24"/>
+      <c r="I275" s="26"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I276" s="24"/>
+      <c r="I276" s="26"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I277" s="24"/>
+      <c r="I277" s="26"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I278" s="24"/>
+      <c r="I278" s="26"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I279" s="24"/>
+      <c r="I279" s="26"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I280" s="24"/>
+      <c r="I280" s="26"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I281" s="24"/>
+      <c r="I281" s="26"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I282" s="24"/>
+      <c r="I282" s="26"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I283" s="24"/>
+      <c r="I283" s="26"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I284" s="24"/>
+      <c r="I284" s="26"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I285" s="24"/>
+      <c r="I285" s="26"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I286" s="24"/>
+      <c r="I286" s="26"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I287" s="24"/>
+      <c r="I287" s="26"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I288" s="24"/>
+      <c r="I288" s="26"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I289" s="24"/>
+      <c r="I289" s="26"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I290" s="24"/>
+      <c r="I290" s="26"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I291" s="24"/>
+      <c r="I291" s="26"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I292" s="24"/>
+      <c r="I292" s="26"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I293" s="24"/>
+      <c r="I293" s="26"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I294" s="24"/>
+      <c r="I294" s="26"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I295" s="24"/>
+      <c r="I295" s="26"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I296" s="24"/>
+      <c r="I296" s="26"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I297" s="24"/>
+      <c r="I297" s="26"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I298" s="24"/>
+      <c r="I298" s="26"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I299" s="24"/>
+      <c r="I299" s="26"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I300" s="24"/>
+      <c r="I300" s="26"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I301" s="24"/>
+      <c r="I301" s="26"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I302" s="24"/>
+      <c r="I302" s="26"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I303" s="24"/>
+      <c r="I303" s="26"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I304" s="24"/>
+      <c r="I304" s="26"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I305" s="24"/>
+      <c r="I305" s="26"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I306" s="24"/>
+      <c r="I306" s="26"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I307" s="24"/>
+      <c r="I307" s="26"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I308" s="24"/>
+      <c r="I308" s="26"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I309" s="24"/>
+      <c r="I309" s="26"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I310" s="24"/>
+      <c r="I310" s="26"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I311" s="24"/>
+      <c r="I311" s="26"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I312" s="24"/>
+      <c r="I312" s="26"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I313" s="24"/>
+      <c r="I313" s="26"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I314" s="24"/>
+      <c r="I314" s="26"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I315" s="24"/>
+      <c r="I315" s="26"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I316" s="24"/>
+      <c r="I316" s="26"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I317" s="24"/>
+      <c r="I317" s="26"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I318" s="24"/>
+      <c r="I318" s="26"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I319" s="24"/>
+      <c r="I319" s="26"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I320" s="24"/>
+      <c r="I320" s="26"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I321" s="24"/>
+      <c r="I321" s="26"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I322" s="24"/>
+      <c r="I322" s="26"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I323" s="24"/>
+      <c r="I323" s="26"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I324" s="24"/>
+      <c r="I324" s="26"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I325" s="24"/>
+      <c r="I325" s="26"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I326" s="24"/>
+      <c r="I326" s="26"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I327" s="24"/>
+      <c r="I327" s="26"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I328" s="24"/>
+      <c r="I328" s="26"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I329" s="24"/>
+      <c r="I329" s="26"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I330" s="24"/>
+      <c r="I330" s="26"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I331" s="24"/>
+      <c r="I331" s="26"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I332" s="24"/>
+      <c r="I332" s="26"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I333" s="24"/>
+      <c r="I333" s="26"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I334" s="24"/>
+      <c r="I334" s="26"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I335" s="24"/>
+      <c r="I335" s="26"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I336" s="24"/>
+      <c r="I336" s="26"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I337" s="24"/>
+      <c r="I337" s="26"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I338" s="24"/>
+      <c r="I338" s="26"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I339" s="24"/>
+      <c r="I339" s="26"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I340" s="24"/>
+      <c r="I340" s="26"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I341" s="24"/>
+      <c r="I341" s="26"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I342" s="24"/>
+      <c r="I342" s="26"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I343" s="24"/>
+      <c r="I343" s="26"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I344" s="24"/>
+      <c r="I344" s="26"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I345" s="24"/>
+      <c r="I345" s="26"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I346" s="24"/>
+      <c r="I346" s="26"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I347" s="24"/>
+      <c r="I347" s="26"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I348" s="24"/>
+      <c r="I348" s="26"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I349" s="24"/>
+      <c r="I349" s="26"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I350" s="24"/>
+      <c r="I350" s="26"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I351" s="24"/>
+      <c r="I351" s="26"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I352" s="24"/>
+      <c r="I352" s="26"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I353" s="24"/>
+      <c r="I353" s="26"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I354" s="24"/>
+      <c r="I354" s="26"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I355" s="24"/>
+      <c r="I355" s="26"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I356" s="24"/>
+      <c r="I356" s="26"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I357" s="24"/>
+      <c r="I357" s="26"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I358" s="24"/>
+      <c r="I358" s="26"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I359" s="24"/>
+      <c r="I359" s="26"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I360" s="24"/>
+      <c r="I360" s="26"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I361" s="24"/>
+      <c r="I361" s="26"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I362" s="24"/>
+      <c r="I362" s="26"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I363" s="24"/>
+      <c r="I363" s="26"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I364" s="24"/>
+      <c r="I364" s="26"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I365" s="24"/>
+      <c r="I365" s="26"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I366" s="24"/>
+      <c r="I366" s="26"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I367" s="24"/>
+      <c r="I367" s="26"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I368" s="24"/>
+      <c r="I368" s="26"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I369" s="24"/>
+      <c r="I369" s="26"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I370" s="24"/>
+      <c r="I370" s="26"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I371" s="24"/>
+      <c r="I371" s="26"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I372" s="24"/>
+      <c r="I372" s="26"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I373" s="24"/>
+      <c r="I373" s="26"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I374" s="24"/>
+      <c r="I374" s="26"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I375" s="24"/>
+      <c r="I375" s="26"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I376" s="24"/>
+      <c r="I376" s="26"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I377" s="24"/>
+      <c r="I377" s="26"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I378" s="24"/>
+      <c r="I378" s="26"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I379" s="24"/>
+      <c r="I379" s="26"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I380" s="24"/>
+      <c r="I380" s="26"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I381" s="24"/>
+      <c r="I381" s="26"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I382" s="24"/>
+      <c r="I382" s="26"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I383" s="24"/>
+      <c r="I383" s="26"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I384" s="24"/>
+      <c r="I384" s="26"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I385" s="24"/>
+      <c r="I385" s="26"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I386" s="24"/>
+      <c r="I386" s="26"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I387" s="24"/>
+      <c r="I387" s="26"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I388" s="24"/>
+      <c r="I388" s="26"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I389" s="24"/>
+      <c r="I389" s="26"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I390" s="24"/>
+      <c r="I390" s="26"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I391" s="24"/>
+      <c r="I391" s="26"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I392" s="24"/>
+      <c r="I392" s="26"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I393" s="24"/>
+      <c r="I393" s="26"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I394" s="24"/>
+      <c r="I394" s="26"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I395" s="24"/>
+      <c r="I395" s="26"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I396" s="24"/>
+      <c r="I396" s="26"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I397" s="24"/>
+      <c r="I397" s="26"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I398" s="24"/>
+      <c r="I398" s="26"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I399" s="24"/>
+      <c r="I399" s="26"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I400" s="24"/>
+      <c r="I400" s="26"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I401" s="24"/>
+      <c r="I401" s="26"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I402" s="24"/>
+      <c r="I402" s="26"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I403" s="24"/>
+      <c r="I403" s="26"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I404" s="24"/>
+      <c r="I404" s="26"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I405" s="24"/>
+      <c r="I405" s="26"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I406" s="24"/>
+      <c r="I406" s="26"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I407" s="24"/>
+      <c r="I407" s="26"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I408" s="24"/>
+      <c r="I408" s="26"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I409" s="24"/>
+      <c r="I409" s="26"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I410" s="24"/>
+      <c r="I410" s="26"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I411" s="24"/>
+      <c r="I411" s="26"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I412" s="24"/>
+      <c r="I412" s="26"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I413" s="24"/>
+      <c r="I413" s="26"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I414" s="24"/>
+      <c r="I414" s="26"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I415" s="24"/>
+      <c r="I415" s="26"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I416" s="24"/>
+      <c r="I416" s="26"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I417" s="24"/>
+      <c r="I417" s="26"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I418" s="24"/>
+      <c r="I418" s="26"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I419" s="24"/>
+      <c r="I419" s="26"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I420" s="24"/>
+      <c r="I420" s="26"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I421" s="24"/>
+      <c r="I421" s="26"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I422" s="24"/>
+      <c r="I422" s="26"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I423" s="24"/>
+      <c r="I423" s="26"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I424" s="24"/>
+      <c r="I424" s="26"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I425" s="24"/>
+      <c r="I425" s="26"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I426" s="24"/>
+      <c r="I426" s="26"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I427" s="24"/>
+      <c r="I427" s="26"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I428" s="24"/>
+      <c r="I428" s="26"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I429" s="24"/>
+      <c r="I429" s="26"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I430" s="24"/>
+      <c r="I430" s="26"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I431" s="24"/>
+      <c r="I431" s="26"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I432" s="24"/>
+      <c r="I432" s="26"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I433" s="24"/>
+      <c r="I433" s="26"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I434" s="24"/>
+      <c r="I434" s="26"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I435" s="24"/>
+      <c r="I435" s="26"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I436" s="24"/>
+      <c r="I436" s="26"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I437" s="24"/>
+      <c r="I437" s="26"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I438" s="24"/>
+      <c r="I438" s="26"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I439" s="24"/>
+      <c r="I439" s="26"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I440" s="24"/>
+      <c r="I440" s="26"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I441" s="24"/>
+      <c r="I441" s="26"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I442" s="24"/>
+      <c r="I442" s="26"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I443" s="24"/>
+      <c r="I443" s="26"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I444" s="24"/>
+      <c r="I444" s="26"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I445" s="24"/>
+      <c r="I445" s="26"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I446" s="24"/>
+      <c r="I446" s="26"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I447" s="24"/>
+      <c r="I447" s="26"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I448" s="24"/>
+      <c r="I448" s="26"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I449" s="24"/>
+      <c r="I449" s="26"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I450" s="24"/>
+      <c r="I450" s="26"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I451" s="24"/>
+      <c r="I451" s="26"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I452" s="24"/>
+      <c r="I452" s="26"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I453" s="24"/>
+      <c r="I453" s="26"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I454" s="24"/>
+      <c r="I454" s="26"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I455" s="24"/>
+      <c r="I455" s="26"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I456" s="24"/>
+      <c r="I456" s="26"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I457" s="24"/>
+      <c r="I457" s="26"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I458" s="24"/>
+      <c r="I458" s="26"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I459" s="24"/>
+      <c r="I459" s="26"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I460" s="24"/>
+      <c r="I460" s="26"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I461" s="24"/>
+      <c r="I461" s="26"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I462" s="24"/>
+      <c r="I462" s="26"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I463" s="24"/>
+      <c r="I463" s="26"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I464" s="24"/>
+      <c r="I464" s="26"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I465" s="24"/>
+      <c r="I465" s="26"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I466" s="24"/>
+      <c r="I466" s="26"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I467" s="24"/>
+      <c r="I467" s="26"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I468" s="24"/>
+      <c r="I468" s="26"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I469" s="24"/>
+      <c r="I469" s="26"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I470" s="24"/>
+      <c r="I470" s="26"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I471" s="24"/>
+      <c r="I471" s="26"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I472" s="24"/>
+      <c r="I472" s="26"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I473" s="24"/>
+      <c r="I473" s="26"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I474" s="24"/>
+      <c r="I474" s="26"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I475" s="24"/>
+      <c r="I475" s="26"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I476" s="24"/>
+      <c r="I476" s="26"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I477" s="24"/>
+      <c r="I477" s="26"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I478" s="24"/>
+      <c r="I478" s="26"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I479" s="24"/>
+      <c r="I479" s="26"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I480" s="24"/>
+      <c r="I480" s="26"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I481" s="24"/>
+      <c r="I481" s="26"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I482" s="24"/>
+      <c r="I482" s="26"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I483" s="24"/>
+      <c r="I483" s="26"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I484" s="24"/>
+      <c r="I484" s="26"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I485" s="24"/>
+      <c r="I485" s="26"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I486" s="24"/>
+      <c r="I486" s="26"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I487" s="24"/>
+      <c r="I487" s="26"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I488" s="24"/>
+      <c r="I488" s="26"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I489" s="24"/>
+      <c r="I489" s="26"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I490" s="24"/>
+      <c r="I490" s="26"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I491" s="24"/>
+      <c r="I491" s="26"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I492" s="24"/>
+      <c r="I492" s="26"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I493" s="24"/>
+      <c r="I493" s="26"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I494" s="24"/>
+      <c r="I494" s="26"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I495" s="24"/>
+      <c r="I495" s="26"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I496" s="24"/>
+      <c r="I496" s="26"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I497" s="24"/>
+      <c r="I497" s="26"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I498" s="24"/>
+      <c r="I498" s="26"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I499" s="24"/>
+      <c r="I499" s="26"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I500" s="24"/>
+      <c r="I500" s="26"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I501" s="24"/>
+      <c r="I501" s="26"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I502" s="24"/>
+      <c r="I502" s="26"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I503" s="24"/>
+      <c r="I503" s="26"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I504" s="24"/>
+      <c r="I504" s="26"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I505" s="24"/>
+      <c r="I505" s="26"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I506" s="24"/>
+      <c r="I506" s="26"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I507" s="24"/>
+      <c r="I507" s="26"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I508" s="24"/>
+      <c r="I508" s="26"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I509" s="24"/>
+      <c r="I509" s="26"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I510" s="24"/>
+      <c r="I510" s="26"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I511" s="24"/>
+      <c r="I511" s="26"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I512" s="24"/>
+      <c r="I512" s="26"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I513" s="24"/>
+      <c r="I513" s="26"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I514" s="24"/>
+      <c r="I514" s="26"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I515" s="24"/>
+      <c r="I515" s="26"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I516" s="24"/>
+      <c r="I516" s="26"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I517" s="24"/>
+      <c r="I517" s="26"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I518" s="24"/>
+      <c r="I518" s="26"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I519" s="24"/>
+      <c r="I519" s="26"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I520" s="24"/>
+      <c r="I520" s="26"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I521" s="24"/>
+      <c r="I521" s="26"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I522" s="24"/>
+      <c r="I522" s="26"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I523" s="24"/>
+      <c r="I523" s="26"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I524" s="24"/>
+      <c r="I524" s="26"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I525" s="24"/>
+      <c r="I525" s="26"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I526" s="24"/>
+      <c r="I526" s="26"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I527" s="24"/>
+      <c r="I527" s="26"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I528" s="24"/>
+      <c r="I528" s="26"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I529" s="24"/>
+      <c r="I529" s="26"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I530" s="24"/>
+      <c r="I530" s="26"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I531" s="24"/>
+      <c r="I531" s="26"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I532" s="24"/>
+      <c r="I532" s="26"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I533" s="24"/>
+      <c r="I533" s="26"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I534" s="24"/>
+      <c r="I534" s="26"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I535" s="24"/>
+      <c r="I535" s="26"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I536" s="24"/>
+      <c r="I536" s="26"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I537" s="24"/>
+      <c r="I537" s="26"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I538" s="24"/>
+      <c r="I538" s="26"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I539" s="24"/>
+      <c r="I539" s="26"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I540" s="24"/>
+      <c r="I540" s="26"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I541" s="24"/>
+      <c r="I541" s="26"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I542" s="24"/>
+      <c r="I542" s="26"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I543" s="24"/>
+      <c r="I543" s="26"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I544" s="24"/>
+      <c r="I544" s="26"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I545" s="24"/>
+      <c r="I545" s="26"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I546" s="24"/>
+      <c r="I546" s="26"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I547" s="24"/>
+      <c r="I547" s="26"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I548" s="24"/>
+      <c r="I548" s="26"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I549" s="24"/>
+      <c r="I549" s="26"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I550" s="24"/>
+      <c r="I550" s="26"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I551" s="24"/>
+      <c r="I551" s="26"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I552" s="24"/>
+      <c r="I552" s="26"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I553" s="24"/>
+      <c r="I553" s="26"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I554" s="24"/>
+      <c r="I554" s="26"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I555" s="24"/>
+      <c r="I555" s="26"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I556" s="24"/>
+      <c r="I556" s="26"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I557" s="24"/>
+      <c r="I557" s="26"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I558" s="24"/>
+      <c r="I558" s="26"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I559" s="24"/>
+      <c r="I559" s="26"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I560" s="24"/>
+      <c r="I560" s="26"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I561" s="24"/>
+      <c r="I561" s="26"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I562" s="24"/>
+      <c r="I562" s="26"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I563" s="24"/>
+      <c r="I563" s="26"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I564" s="24"/>
+      <c r="I564" s="26"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I565" s="24"/>
+      <c r="I565" s="26"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I566" s="24"/>
+      <c r="I566" s="26"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I567" s="24"/>
+      <c r="I567" s="26"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I568" s="24"/>
+      <c r="I568" s="26"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I569" s="24"/>
+      <c r="I569" s="26"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I570" s="24"/>
+      <c r="I570" s="26"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I571" s="24"/>
+      <c r="I571" s="26"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I572" s="24"/>
+      <c r="I572" s="26"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I573" s="24"/>
+      <c r="I573" s="26"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I574" s="24"/>
+      <c r="I574" s="26"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I575" s="24"/>
+      <c r="I575" s="26"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I576" s="24"/>
+      <c r="I576" s="26"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I577" s="24"/>
+      <c r="I577" s="26"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I578" s="24"/>
+      <c r="I578" s="26"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I579" s="24"/>
+      <c r="I579" s="26"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I580" s="24"/>
+      <c r="I580" s="26"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I581" s="24"/>
+      <c r="I581" s="26"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I582" s="24"/>
+      <c r="I582" s="26"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I583" s="24"/>
+      <c r="I583" s="26"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I584" s="24"/>
+      <c r="I584" s="26"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I585" s="24"/>
+      <c r="I585" s="26"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I586" s="24"/>
+      <c r="I586" s="26"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I587" s="24"/>
+      <c r="I587" s="26"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I588" s="24"/>
+      <c r="I588" s="26"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I589" s="24"/>
+      <c r="I589" s="26"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I590" s="24"/>
+      <c r="I590" s="26"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I591" s="24"/>
+      <c r="I591" s="26"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I592" s="24"/>
+      <c r="I592" s="26"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I593" s="24"/>
+      <c r="I593" s="26"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I594" s="24"/>
+      <c r="I594" s="26"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I595" s="24"/>
+      <c r="I595" s="26"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I596" s="24"/>
+      <c r="I596" s="26"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I597" s="24"/>
+      <c r="I597" s="26"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I598" s="24"/>
+      <c r="I598" s="26"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I599" s="24"/>
+      <c r="I599" s="26"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I600" s="24"/>
+      <c r="I600" s="26"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I601" s="24"/>
+      <c r="I601" s="26"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I602" s="24"/>
+      <c r="I602" s="26"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I603" s="24"/>
+      <c r="I603" s="26"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I604" s="24"/>
+      <c r="I604" s="26"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I605" s="24"/>
+      <c r="I605" s="26"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I606" s="24"/>
+      <c r="I606" s="26"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I607" s="24"/>
+      <c r="I607" s="26"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I608" s="24"/>
+      <c r="I608" s="26"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I609" s="24"/>
+      <c r="I609" s="26"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I610" s="24"/>
+      <c r="I610" s="26"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I611" s="24"/>
+      <c r="I611" s="26"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I612" s="24"/>
+      <c r="I612" s="26"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I613" s="24"/>
+      <c r="I613" s="26"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I614" s="24"/>
+      <c r="I614" s="26"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I615" s="24"/>
+      <c r="I615" s="26"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I616" s="24"/>
+      <c r="I616" s="26"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I617" s="24"/>
+      <c r="I617" s="26"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I618" s="24"/>
+      <c r="I618" s="26"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I619" s="24"/>
+      <c r="I619" s="26"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I620" s="24"/>
+      <c r="I620" s="26"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I621" s="24"/>
+      <c r="I621" s="26"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I622" s="24"/>
+      <c r="I622" s="26"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I623" s="24"/>
+      <c r="I623" s="26"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I624" s="24"/>
+      <c r="I624" s="26"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I625" s="24"/>
+      <c r="I625" s="26"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I626" s="24"/>
+      <c r="I626" s="26"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I627" s="24"/>
+      <c r="I627" s="26"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I628" s="24"/>
+      <c r="I628" s="26"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I629" s="24"/>
+      <c r="I629" s="26"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I630" s="24"/>
+      <c r="I630" s="26"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I631" s="24"/>
+      <c r="I631" s="26"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I632" s="24"/>
+      <c r="I632" s="26"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I633" s="24"/>
+      <c r="I633" s="26"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I634" s="24"/>
+      <c r="I634" s="26"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I635" s="24"/>
+      <c r="I635" s="26"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I636" s="24"/>
+      <c r="I636" s="26"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I637" s="24"/>
+      <c r="I637" s="26"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I638" s="24"/>
+      <c r="I638" s="26"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I639" s="24"/>
+      <c r="I639" s="26"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I640" s="24"/>
+      <c r="I640" s="26"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I641" s="24"/>
+      <c r="I641" s="26"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I642" s="24"/>
+      <c r="I642" s="26"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I643" s="24"/>
+      <c r="I643" s="26"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I644" s="24"/>
+      <c r="I644" s="26"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I645" s="24"/>
+      <c r="I645" s="26"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I646" s="24"/>
+      <c r="I646" s="26"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I647" s="24"/>
+      <c r="I647" s="26"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I648" s="24"/>
+      <c r="I648" s="26"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I649" s="24"/>
+      <c r="I649" s="26"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I650" s="24"/>
+      <c r="I650" s="26"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I651" s="24"/>
+      <c r="I651" s="26"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I652" s="24"/>
+      <c r="I652" s="26"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I653" s="24"/>
+      <c r="I653" s="26"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I654" s="24"/>
+      <c r="I654" s="26"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I655" s="24"/>
+      <c r="I655" s="26"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I656" s="24"/>
+      <c r="I656" s="26"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I657" s="24"/>
+      <c r="I657" s="26"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I658" s="24"/>
+      <c r="I658" s="26"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I659" s="24"/>
+      <c r="I659" s="26"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I660" s="24"/>
+      <c r="I660" s="26"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I661" s="24"/>
+      <c r="I661" s="26"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I662" s="24"/>
+      <c r="I662" s="26"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I663" s="24"/>
+      <c r="I663" s="26"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I664" s="24"/>
+      <c r="I664" s="26"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I665" s="24"/>
+      <c r="I665" s="26"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I666" s="24"/>
+      <c r="I666" s="26"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I667" s="24"/>
+      <c r="I667" s="26"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I668" s="24"/>
+      <c r="I668" s="26"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I669" s="24"/>
+      <c r="I669" s="26"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I670" s="24"/>
+      <c r="I670" s="26"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I671" s="24"/>
+      <c r="I671" s="26"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I672" s="24"/>
+      <c r="I672" s="26"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I673" s="24"/>
+      <c r="I673" s="26"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I674" s="24"/>
+      <c r="I674" s="26"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I675" s="24"/>
+      <c r="I675" s="26"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I676" s="24"/>
+      <c r="I676" s="26"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I677" s="24"/>
+      <c r="I677" s="26"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I678" s="24"/>
+      <c r="I678" s="26"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I679" s="24"/>
+      <c r="I679" s="26"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I680" s="24"/>
+      <c r="I680" s="26"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I681" s="24"/>
+      <c r="I681" s="26"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I682" s="24"/>
+      <c r="I682" s="26"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I683" s="24"/>
+      <c r="I683" s="26"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I684" s="24"/>
+      <c r="I684" s="26"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I685" s="24"/>
+      <c r="I685" s="26"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I686" s="24"/>
+      <c r="I686" s="26"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I687" s="24"/>
+      <c r="I687" s="26"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I688" s="24"/>
+      <c r="I688" s="26"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I689" s="24"/>
+      <c r="I689" s="26"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I690" s="24"/>
+      <c r="I690" s="26"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I691" s="24"/>
+      <c r="I691" s="26"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I692" s="24"/>
+      <c r="I692" s="26"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I693" s="24"/>
+      <c r="I693" s="26"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I694" s="24"/>
+      <c r="I694" s="26"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I695" s="24"/>
+      <c r="I695" s="26"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I696" s="24"/>
+      <c r="I696" s="26"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I697" s="24"/>
+      <c r="I697" s="26"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I698" s="24"/>
+      <c r="I698" s="26"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I699" s="24"/>
+      <c r="I699" s="26"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I700" s="24"/>
+      <c r="I700" s="26"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I701" s="24"/>
+      <c r="I701" s="26"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I702" s="24"/>
+      <c r="I702" s="26"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I703" s="24"/>
+      <c r="I703" s="26"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I704" s="24"/>
+      <c r="I704" s="26"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I705" s="24"/>
+      <c r="I705" s="26"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I706" s="24"/>
+      <c r="I706" s="26"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I707" s="24"/>
+      <c r="I707" s="26"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I708" s="24"/>
+      <c r="I708" s="26"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I709" s="24"/>
+      <c r="I709" s="26"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I710" s="24"/>
+      <c r="I710" s="26"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I711" s="24"/>
+      <c r="I711" s="26"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I712" s="24"/>
+      <c r="I712" s="26"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I713" s="24"/>
+      <c r="I713" s="26"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I714" s="24"/>
+      <c r="I714" s="26"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I715" s="24"/>
+      <c r="I715" s="26"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I716" s="24"/>
+      <c r="I716" s="26"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I717" s="24"/>
+      <c r="I717" s="26"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I718" s="24"/>
+      <c r="I718" s="26"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I719" s="24"/>
+      <c r="I719" s="26"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I720" s="24"/>
+      <c r="I720" s="26"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I721" s="24"/>
+      <c r="I721" s="26"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I722" s="24"/>
+      <c r="I722" s="26"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I723" s="24"/>
+      <c r="I723" s="26"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I724" s="24"/>
+      <c r="I724" s="26"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I725" s="24"/>
+      <c r="I725" s="26"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I726" s="24"/>
+      <c r="I726" s="26"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I727" s="24"/>
+      <c r="I727" s="26"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I728" s="24"/>
+      <c r="I728" s="26"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I729" s="24"/>
+      <c r="I729" s="26"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I730" s="24"/>
+      <c r="I730" s="26"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I731" s="24"/>
+      <c r="I731" s="26"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I732" s="24"/>
+      <c r="I732" s="26"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I733" s="24"/>
+      <c r="I733" s="26"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I734" s="24"/>
+      <c r="I734" s="26"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I735" s="24"/>
+      <c r="I735" s="26"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I736" s="24"/>
+      <c r="I736" s="26"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I737" s="24"/>
+      <c r="I737" s="26"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I738" s="24"/>
+      <c r="I738" s="26"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I739" s="24"/>
+      <c r="I739" s="26"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I740" s="24"/>
+      <c r="I740" s="26"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I741" s="24"/>
+      <c r="I741" s="26"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I742" s="24"/>
+      <c r="I742" s="26"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I743" s="24"/>
+      <c r="I743" s="26"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I744" s="24"/>
+      <c r="I744" s="26"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I745" s="24"/>
+      <c r="I745" s="26"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I746" s="24"/>
+      <c r="I746" s="26"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I747" s="24"/>
+      <c r="I747" s="26"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I748" s="24"/>
+      <c r="I748" s="26"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I749" s="24"/>
+      <c r="I749" s="26"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I750" s="24"/>
+      <c r="I750" s="26"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I751" s="24"/>
+      <c r="I751" s="26"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I752" s="24"/>
+      <c r="I752" s="26"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I753" s="24"/>
+      <c r="I753" s="26"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I754" s="24"/>
+      <c r="I754" s="26"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I755" s="24"/>
+      <c r="I755" s="26"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I756" s="24"/>
+      <c r="I756" s="26"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I757" s="24"/>
+      <c r="I757" s="26"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I758" s="24"/>
+      <c r="I758" s="26"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I759" s="24"/>
+      <c r="I759" s="26"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I760" s="24"/>
+      <c r="I760" s="26"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I761" s="24"/>
+      <c r="I761" s="26"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I762" s="24"/>
+      <c r="I762" s="26"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I763" s="24"/>
+      <c r="I763" s="26"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I764" s="24"/>
+      <c r="I764" s="26"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I765" s="24"/>
+      <c r="I765" s="26"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I766" s="24"/>
+      <c r="I766" s="26"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I767" s="24"/>
+      <c r="I767" s="26"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I768" s="24"/>
+      <c r="I768" s="26"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I769" s="24"/>
+      <c r="I769" s="26"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I770" s="24"/>
+      <c r="I770" s="26"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I771" s="24"/>
+      <c r="I771" s="26"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I772" s="24"/>
+      <c r="I772" s="26"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I773" s="24"/>
+      <c r="I773" s="26"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I774" s="24"/>
+      <c r="I774" s="26"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I775" s="24"/>
+      <c r="I775" s="26"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I776" s="24"/>
+      <c r="I776" s="26"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I777" s="24"/>
+      <c r="I777" s="26"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I778" s="24"/>
+      <c r="I778" s="26"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I779" s="24"/>
+      <c r="I779" s="26"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I780" s="24"/>
+      <c r="I780" s="26"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I781" s="24"/>
+      <c r="I781" s="26"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I782" s="24"/>
+      <c r="I782" s="26"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I783" s="24"/>
+      <c r="I783" s="26"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I784" s="24"/>
+      <c r="I784" s="26"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I785" s="24"/>
+      <c r="I785" s="26"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I786" s="24"/>
+      <c r="I786" s="26"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I787" s="24"/>
+      <c r="I787" s="26"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I788" s="24"/>
+      <c r="I788" s="26"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I789" s="24"/>
+      <c r="I789" s="26"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I790" s="24"/>
+      <c r="I790" s="26"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I791" s="24"/>
+      <c r="I791" s="26"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I792" s="24"/>
+      <c r="I792" s="26"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I793" s="24"/>
+      <c r="I793" s="26"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I794" s="24"/>
+      <c r="I794" s="26"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I795" s="24"/>
+      <c r="I795" s="26"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I796" s="24"/>
+      <c r="I796" s="26"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I797" s="24"/>
+      <c r="I797" s="26"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I798" s="24"/>
+      <c r="I798" s="26"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I799" s="24"/>
+      <c r="I799" s="26"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I800" s="24"/>
+      <c r="I800" s="26"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I801" s="24"/>
+      <c r="I801" s="26"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I802" s="24"/>
+      <c r="I802" s="26"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I803" s="24"/>
+      <c r="I803" s="26"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I804" s="24"/>
+      <c r="I804" s="26"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I805" s="24"/>
+      <c r="I805" s="26"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I806" s="24"/>
+      <c r="I806" s="26"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I807" s="24"/>
+      <c r="I807" s="26"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I808" s="24"/>
+      <c r="I808" s="26"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I809" s="24"/>
+      <c r="I809" s="26"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I810" s="24"/>
+      <c r="I810" s="26"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I811" s="24"/>
+      <c r="I811" s="26"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I812" s="24"/>
+      <c r="I812" s="26"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I813" s="24"/>
+      <c r="I813" s="26"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I814" s="24"/>
+      <c r="I814" s="26"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I815" s="24"/>
+      <c r="I815" s="26"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I816" s="24"/>
+      <c r="I816" s="26"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I817" s="24"/>
+      <c r="I817" s="26"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I818" s="24"/>
+      <c r="I818" s="26"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I819" s="24"/>
+      <c r="I819" s="26"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I820" s="24"/>
+      <c r="I820" s="26"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I821" s="24"/>
+      <c r="I821" s="26"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I822" s="24"/>
+      <c r="I822" s="26"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I823" s="24"/>
+      <c r="I823" s="26"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I824" s="24"/>
+      <c r="I824" s="26"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I825" s="24"/>
+      <c r="I825" s="26"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I826" s="24"/>
+      <c r="I826" s="26"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I827" s="24"/>
+      <c r="I827" s="26"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I828" s="24"/>
+      <c r="I828" s="26"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I829" s="24"/>
+      <c r="I829" s="26"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I830" s="24"/>
+      <c r="I830" s="26"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I831" s="24"/>
+      <c r="I831" s="26"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I832" s="24"/>
+      <c r="I832" s="26"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I833" s="24"/>
+      <c r="I833" s="26"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I834" s="24"/>
+      <c r="I834" s="26"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I835" s="24"/>
+      <c r="I835" s="26"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I836" s="24"/>
+      <c r="I836" s="26"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I837" s="24"/>
+      <c r="I837" s="26"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I838" s="24"/>
+      <c r="I838" s="26"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I839" s="24"/>
+      <c r="I839" s="26"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I840" s="24"/>
+      <c r="I840" s="26"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I841" s="24"/>
+      <c r="I841" s="26"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I842" s="24"/>
+      <c r="I842" s="26"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I843" s="24"/>
+      <c r="I843" s="26"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I844" s="24"/>
+      <c r="I844" s="26"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I845" s="24"/>
+      <c r="I845" s="26"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I846" s="24"/>
+      <c r="I846" s="26"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I847" s="24"/>
+      <c r="I847" s="26"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I848" s="24"/>
+      <c r="I848" s="26"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I849" s="24"/>
+      <c r="I849" s="26"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I850" s="24"/>
+      <c r="I850" s="26"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I851" s="24"/>
+      <c r="I851" s="26"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I852" s="24"/>
+      <c r="I852" s="26"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I853" s="24"/>
+      <c r="I853" s="26"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I854" s="24"/>
+      <c r="I854" s="26"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I855" s="24"/>
+      <c r="I855" s="26"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I856" s="24"/>
+      <c r="I856" s="26"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I857" s="24"/>
+      <c r="I857" s="26"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I858" s="24"/>
+      <c r="I858" s="26"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I859" s="24"/>
+      <c r="I859" s="26"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I860" s="24"/>
+      <c r="I860" s="26"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I861" s="24"/>
+      <c r="I861" s="26"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I862" s="24"/>
+      <c r="I862" s="26"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I863" s="24"/>
+      <c r="I863" s="26"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I864" s="24"/>
+      <c r="I864" s="26"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I865" s="24"/>
+      <c r="I865" s="26"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I866" s="24"/>
+      <c r="I866" s="26"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I867" s="24"/>
+      <c r="I867" s="26"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I868" s="24"/>
+      <c r="I868" s="26"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I869" s="24"/>
+      <c r="I869" s="26"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I870" s="24"/>
+      <c r="I870" s="26"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I871" s="24"/>
+      <c r="I871" s="26"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I872" s="24"/>
+      <c r="I872" s="26"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I873" s="24"/>
+      <c r="I873" s="26"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I874" s="24"/>
+      <c r="I874" s="26"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I875" s="24"/>
+      <c r="I875" s="26"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I876" s="24"/>
+      <c r="I876" s="26"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I877" s="24"/>
+      <c r="I877" s="26"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I878" s="24"/>
+      <c r="I878" s="26"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I879" s="24"/>
+      <c r="I879" s="26"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I880" s="24"/>
+      <c r="I880" s="26"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I881" s="24"/>
+      <c r="I881" s="26"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I882" s="24"/>
+      <c r="I882" s="26"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I883" s="24"/>
+      <c r="I883" s="26"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I884" s="24"/>
+      <c r="I884" s="26"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I885" s="24"/>
+      <c r="I885" s="26"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I886" s="24"/>
+      <c r="I886" s="26"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I887" s="24"/>
+      <c r="I887" s="26"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I888" s="24"/>
+      <c r="I888" s="26"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I889" s="24"/>
+      <c r="I889" s="26"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I890" s="24"/>
+      <c r="I890" s="26"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I891" s="24"/>
+      <c r="I891" s="26"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I892" s="24"/>
+      <c r="I892" s="26"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I893" s="24"/>
+      <c r="I893" s="26"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I894" s="24"/>
+      <c r="I894" s="26"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I895" s="24"/>
+      <c r="I895" s="26"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I896" s="24"/>
+      <c r="I896" s="26"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I897" s="24"/>
+      <c r="I897" s="26"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I898" s="24"/>
+      <c r="I898" s="26"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I899" s="24"/>
+      <c r="I899" s="26"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I900" s="24"/>
+      <c r="I900" s="26"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I901" s="24"/>
+      <c r="I901" s="26"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I902" s="24"/>
+      <c r="I902" s="26"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I903" s="24"/>
+      <c r="I903" s="26"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I904" s="24"/>
+      <c r="I904" s="26"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I905" s="24"/>
+      <c r="I905" s="26"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I906" s="24"/>
+      <c r="I906" s="26"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I907" s="24"/>
+      <c r="I907" s="26"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I908" s="24"/>
+      <c r="I908" s="26"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I909" s="24"/>
+      <c r="I909" s="26"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I910" s="24"/>
+      <c r="I910" s="26"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I911" s="24"/>
+      <c r="I911" s="26"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I912" s="24"/>
+      <c r="I912" s="26"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I913" s="24"/>
+      <c r="I913" s="26"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I914" s="24"/>
+      <c r="I914" s="26"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I915" s="24"/>
+      <c r="I915" s="26"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I916" s="24"/>
+      <c r="I916" s="26"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I917" s="24"/>
+      <c r="I917" s="26"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I918" s="24"/>
+      <c r="I918" s="26"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I919" s="24"/>
+      <c r="I919" s="26"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I920" s="24"/>
+      <c r="I920" s="26"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I921" s="24"/>
+      <c r="I921" s="26"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I922" s="24"/>
+      <c r="I922" s="26"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I923" s="24"/>
+      <c r="I923" s="26"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I924" s="24"/>
+      <c r="I924" s="26"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I925" s="24"/>
+      <c r="I925" s="26"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I926" s="24"/>
+      <c r="I926" s="26"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I927" s="24"/>
+      <c r="I927" s="26"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I928" s="24"/>
+      <c r="I928" s="26"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I929" s="24"/>
+      <c r="I929" s="26"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I930" s="24"/>
+      <c r="I930" s="26"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I931" s="24"/>
+      <c r="I931" s="26"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I932" s="24"/>
+      <c r="I932" s="26"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I933" s="24"/>
+      <c r="I933" s="26"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I934" s="24"/>
+      <c r="I934" s="26"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I935" s="24"/>
+      <c r="I935" s="26"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I936" s="24"/>
+      <c r="I936" s="26"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I937" s="24"/>
+      <c r="I937" s="26"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I938" s="24"/>
+      <c r="I938" s="26"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I939" s="24"/>
+      <c r="I939" s="26"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I940" s="24"/>
+      <c r="I940" s="26"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I941" s="24"/>
+      <c r="I941" s="26"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I942" s="24"/>
+      <c r="I942" s="26"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I943" s="24"/>
+      <c r="I943" s="26"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I944" s="24"/>
+      <c r="I944" s="26"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I945" s="24"/>
+      <c r="I945" s="26"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I946" s="24"/>
+      <c r="I946" s="26"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I947" s="24"/>
+      <c r="I947" s="26"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I948" s="24"/>
+      <c r="I948" s="26"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I949" s="24"/>
+      <c r="I949" s="26"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I950" s="24"/>
+      <c r="I950" s="26"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I951" s="24"/>
+      <c r="I951" s="26"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I952" s="24"/>
+      <c r="I952" s="26"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I953" s="24"/>
+      <c r="I953" s="26"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I954" s="24"/>
+      <c r="I954" s="26"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I955" s="24"/>
+      <c r="I955" s="26"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I956" s="24"/>
+      <c r="I956" s="26"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I957" s="24"/>
+      <c r="I957" s="26"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I958" s="24"/>
+      <c r="I958" s="26"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I959" s="24"/>
+      <c r="I959" s="26"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I960" s="24"/>
+      <c r="I960" s="26"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I961" s="24"/>
+      <c r="I961" s="26"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I962" s="24"/>
+      <c r="I962" s="26"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I963" s="24"/>
+      <c r="I963" s="26"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I964" s="24"/>
+      <c r="I964" s="26"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I965" s="24"/>
+      <c r="I965" s="26"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I966" s="24"/>
+      <c r="I966" s="26"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I967" s="24"/>
+      <c r="I967" s="26"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I968" s="24"/>
+      <c r="I968" s="26"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I969" s="24"/>
+      <c r="I969" s="26"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I970" s="24"/>
+      <c r="I970" s="26"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I971" s="24"/>
+      <c r="I971" s="26"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I972" s="24"/>
+      <c r="I972" s="26"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I973" s="24"/>
+      <c r="I973" s="26"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I974" s="24"/>
+      <c r="I974" s="26"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I975" s="24"/>
+      <c r="I975" s="26"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I976" s="24"/>
+      <c r="I976" s="26"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I977" s="24"/>
+      <c r="I977" s="26"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I978" s="24"/>
+      <c r="I978" s="26"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I979" s="24"/>
+      <c r="I979" s="26"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I980" s="24"/>
+      <c r="I980" s="26"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I981" s="24"/>
+      <c r="I981" s="26"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I982" s="24"/>
+      <c r="I982" s="26"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I983" s="24"/>
+      <c r="I983" s="26"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I984" s="24"/>
+      <c r="I984" s="26"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I985" s="24"/>
+      <c r="I985" s="26"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I986" s="24"/>
+      <c r="I986" s="26"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I987" s="24"/>
+      <c r="I987" s="26"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I988" s="24"/>
+      <c r="I988" s="26"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I989" s="24"/>
+      <c r="I989" s="26"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I990" s="24"/>
+      <c r="I990" s="26"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I991" s="24"/>
+      <c r="I991" s="26"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I992" s="24"/>
+      <c r="I992" s="26"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I993" s="24"/>
+      <c r="I993" s="26"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I994" s="24"/>
+      <c r="I994" s="26"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I995" s="24"/>
+      <c r="I995" s="26"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I996" s="24"/>
+      <c r="I996" s="26"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I997" s="24"/>
+      <c r="I997" s="26"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I998" s="24"/>
+      <c r="I998" s="26"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I999" s="24"/>
+      <c r="I999" s="26"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I1000" s="24"/>
+      <c r="I1000" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
